--- a/document/10. กลุ่มยุทธศาสตร์.xlsx
+++ b/document/10. กลุ่มยุทธศาสตร์.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D9A441-AB5B-4AFB-ABE5-2E3F841B9509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CABC9-F343-4A8F-821E-EB544D90E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="6" activeTab="8" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="สายงานความยั่งยืน 1" sheetId="2" r:id="rId1"/>
@@ -1828,12 +1828,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5552,12 +5552,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -12268,13 +12268,13 @@
   <dimension ref="A1:T950"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -22335,12 +22335,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -32157,12 +32157,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -37075,12 +37075,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -40326,12 +40326,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -42304,12 +42304,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -44183,12 +44183,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
